--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-017 - Abnormal Pemimpin Wilayah, Admin SLN & Admin WEM Tidak Bisa Input Komentar Agenda.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-017 - Abnormal Pemimpin Wilayah, Admin SLN & Admin WEM Tidak Bisa Input Komentar Agenda.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590CADB-24A3-43CF-AD6E-FC60D1704AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842EAAA-0183-40DF-840B-8FE6D03D5B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,9 +104,6 @@
     <t>Follow Up</t>
   </si>
   <si>
-    <t>SCD0338-017</t>
-  </si>
-  <si>
     <t>Abnormal Input Komentar pada Agenda Portal</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Komentar 3</t>
+  </si>
+  <si>
+    <t>SCD0026-017</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>52326</v>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>18</v>
@@ -707,17 +707,17 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f ca="1">TEXT(TODAY()-30,"mmmm")</f>
@@ -727,7 +727,7 @@
         <v>43988</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="2">
         <v>37679</v>
@@ -759,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>18</v>
@@ -767,17 +767,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f ca="1">TEXT(TODAY()-60,"mmmm")</f>
@@ -787,7 +787,7 @@
         <v>32587</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>26482</v>
@@ -815,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -823,17 +823,17 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f ca="1">TEXT(TODAY()-30,"mmmm")</f>
@@ -843,7 +843,7 @@
         <v>47443</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
